--- a/Project2/wwwroot/Package.xlsx
+++ b/Project2/wwwroot/Package.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Track Number</t>
   </si>
@@ -30,30 +30,6 @@
   </si>
   <si>
     <t xml:space="preserve">Last date of update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gf67e58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minsk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g. Mosti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on the way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.12.202414:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gt6543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postavi</t>
   </si>
 </sst>
 </file>
@@ -98,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -124,46 +100,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project2/wwwroot/Package.xlsx
+++ b/Project2/wwwroot/Package.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t xml:space="preserve">Track Number</t>
   </si>
@@ -30,6 +30,54 @@
   </si>
   <si>
     <t xml:space="preserve">Last date of update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gt6543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitebsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on the way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.12.2024 14:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gt6543ии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g. Mosti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.12.2024 18:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gf67e58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.12.2024 18:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exemple4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slutsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.12.2024 18:04</t>
   </si>
 </sst>
 </file>
@@ -74,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -100,6 +148,86 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
